--- a/out/ERA5-Land monthly averaged total_precipitation 1981-2020 SRI LANKA BATTICALOA.xlsx
+++ b/out/ERA5-Land monthly averaged total_precipitation 1981-2020 SRI LANKA BATTICALOA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\1-COMMUN\DIS\Documentation\Hydrologie\Documentation externe\Climat Monde\CDS (Climate Data Store)\ERA5-Land monthly averaged Total Precipitation 1981-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\A\Download\Hydro-Climato\CDS (Climate Data Store)\ERA5-Land\ERA5-Land monthly averaged Total Precipitation 1981-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,8 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -114,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -123,6 +124,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -419,7 +421,7 @@
                 <c:pt idx="38">
                   <c:v>1578.2</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.0">
                   <c:v>1473.5794871794874</c:v>
                 </c:pt>
               </c:numCache>
@@ -435,11 +437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="706012120"/>
-        <c:axId val="706012512"/>
+        <c:axId val="705449112"/>
+        <c:axId val="705445584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="706012120"/>
+        <c:axId val="705449112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,12 +451,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="706012512"/>
+        <c:crossAx val="705445584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="706012512"/>
+        <c:axId val="705445584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="706012120"/>
+        <c:crossAx val="705449112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -557,6 +559,44 @@
         <a:xfrm>
           <a:off x="1219200" y="3619500"/>
           <a:ext cx="9525000" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131781</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676401" y="6911340"/>
+          <a:ext cx="7599380" cy="10711753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -660,17 +700,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>379886</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>60189</xdr:rowOff>
+      <xdr:colOff>496996</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>166611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="ERA5 Interannual Mean by month.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -683,8 +723,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8336280"/>
-          <a:ext cx="8914286" cy="6171429"/>
+          <a:off x="0" y="8244840"/>
+          <a:ext cx="9031396" cy="6003531"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -696,19 +736,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>205713</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>300511</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>151471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6"/>
+        <xdr:cNvPr id="4" name="Image 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -721,8 +761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="8473440"/>
-          <a:ext cx="3596613" cy="6210300"/>
+          <a:off x="8054340" y="8267700"/>
+          <a:ext cx="3828571" cy="7428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1023,7 +1063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B481"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4885,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6711,55 +6753,55 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B45">
+      <c r="B45" s="4">
         <f>AVERAGE(B4:B44)</f>
         <v>170.88292682926829</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <f t="shared" ref="C45:N45" si="0">AVERAGE(C4:C44)</f>
         <v>90.98536585365855</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <f t="shared" si="0"/>
         <v>53.826829268292684</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <f t="shared" si="0"/>
         <v>64.948780487804896</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <f t="shared" si="0"/>
         <v>73.021951219512204</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <f t="shared" si="0"/>
         <v>34.463414634146339</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <f t="shared" si="0"/>
         <v>47.346341463414632</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <f t="shared" si="0"/>
         <v>59.975609756097562</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <f t="shared" si="0"/>
         <v>108.51707317073171</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <f t="shared" si="0"/>
         <v>186.26000000000002</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="4">
         <f t="shared" si="0"/>
         <v>271.98250000000002</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="4">
         <f t="shared" si="0"/>
         <v>274.41249999999997</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="4">
         <f t="shared" si="0"/>
         <v>1473.5794871794874</v>
       </c>

--- a/out/ERA5-Land monthly averaged total_precipitation 1981-2020 SRI LANKA BATTICALOA.xlsx
+++ b/out/ERA5-Land monthly averaged total_precipitation 1981-2020 SRI LANKA BATTICALOA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="single column" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -123,8 +123,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -305,124 +305,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1361.7</c:v>
+                  <c:v>1345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1140</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1325.8</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1933.4</c:v>
+                  <c:v>1907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1274.2</c:v>
+                  <c:v>1295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1351.9</c:v>
+                  <c:v>1372</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1349.5</c:v>
+                  <c:v>1386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1336.8</c:v>
+                  <c:v>1359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1064.5</c:v>
+                  <c:v>1108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1235.5</c:v>
+                  <c:v>1245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1104.2</c:v>
+                  <c:v>1119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1146.5</c:v>
+                  <c:v>1166</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1326.2</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1722.7</c:v>
+                  <c:v>1714</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1286.4000000000001</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1169.8</c:v>
+                  <c:v>1193</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1080.7</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1067.8</c:v>
+                  <c:v>1094</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1630</c:v>
+                  <c:v>1644</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1837</c:v>
+                  <c:v>1847</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1313.6</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1310.8</c:v>
+                  <c:v>1340</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1378.6</c:v>
+                  <c:v>1391</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1705.9</c:v>
+                  <c:v>1698</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1401.1</c:v>
+                  <c:v>1419</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1575.1</c:v>
+                  <c:v>1580</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1518.2</c:v>
+                  <c:v>1534</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1795.8</c:v>
+                  <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1352.4</c:v>
+                  <c:v>1361</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1774.8</c:v>
+                  <c:v>1791</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2890.9</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1608.9</c:v>
+                  <c:v>1595</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1559.3</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2011.8</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1879.6</c:v>
+                  <c:v>1884</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1013.5</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1466</c:v>
+                  <c:v>1482</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1590.5</c:v>
+                  <c:v>1614</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1578.2</c:v>
+                  <c:v>1582</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.0">
-                  <c:v>1473.5794871794874</c:v>
+                  <c:v>1487.7179487179487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,11 +437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="705449112"/>
-        <c:axId val="705445584"/>
+        <c:axId val="778204728"/>
+        <c:axId val="783571224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="705449112"/>
+        <c:axId val="778204728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,12 +451,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="705445584"/>
+        <c:crossAx val="783571224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="705445584"/>
+        <c:axId val="783571224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="705449112"/>
+        <c:crossAx val="778204728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -569,16 +569,71 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>131781</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>66613</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6" descr="Climate of Sri Lanka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10363200" y="7490460"/>
+          <a:ext cx="4351020" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312945</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -588,15 +643,53 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676401" y="6911340"/>
-          <a:ext cx="7599380" cy="10711753"/>
+          <a:off x="5981700" y="7322821"/>
+          <a:ext cx="2865645" cy="5623560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280762</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828802" y="7315201"/>
+          <a:ext cx="3938360" cy="5600699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -625,7 +718,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -642,109 +735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="Climate of Sri Lanka"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11940540" y="8145780"/>
-          <a:ext cx="4351020" cy="5623560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>496996</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>166611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="ERA5 Interannual Mean by month.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8244840"/>
-          <a:ext cx="9031396" cy="6003531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>300511</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>151471</xdr:rowOff>
+      <xdr:colOff>275276</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>136389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -754,15 +754,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8054340" y="8267700"/>
-          <a:ext cx="3828571" cy="7428571"/>
+          <a:off x="8534400" y="2743200"/>
+          <a:ext cx="7590476" cy="6171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B481"/>
+  <dimension ref="A1:R481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1106,7 +1106,7 @@
         <v>29587</v>
       </c>
       <c r="B5">
-        <v>75.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>29618</v>
       </c>
       <c r="B6">
-        <v>93.9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
         <v>29646</v>
       </c>
       <c r="B7">
-        <v>53.3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1130,7 +1130,7 @@
         <v>29677</v>
       </c>
       <c r="B8">
-        <v>101.2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
         <v>29707</v>
       </c>
       <c r="B9">
-        <v>93.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>29768</v>
       </c>
       <c r="B11">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
         <v>29799</v>
       </c>
       <c r="B12">
-        <v>18.8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>29860</v>
       </c>
       <c r="B14">
-        <v>190.2</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>29891</v>
       </c>
       <c r="B15">
-        <v>201.5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1194,7 +1194,7 @@
         <v>29921</v>
       </c>
       <c r="B16">
-        <v>186.7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1202,7 +1202,7 @@
         <v>29952</v>
       </c>
       <c r="B17">
-        <v>63.2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>29983</v>
       </c>
       <c r="B18">
-        <v>12.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>30011</v>
       </c>
       <c r="B19">
-        <v>54.9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
         <v>30042</v>
       </c>
       <c r="B20">
-        <v>17.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1234,7 +1234,7 @@
         <v>30072</v>
       </c>
       <c r="B21">
-        <v>84.7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1242,7 +1242,7 @@
         <v>30103</v>
       </c>
       <c r="B22">
-        <v>12.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
         <v>30133</v>
       </c>
       <c r="B23">
-        <v>33.4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1258,7 +1258,7 @@
         <v>30164</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
         <v>30195</v>
       </c>
       <c r="B25">
-        <v>99.2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1282,7 +1282,7 @@
         <v>30256</v>
       </c>
       <c r="B27">
-        <v>295.10000000000002</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
         <v>30286</v>
       </c>
       <c r="B28">
-        <v>309.7</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1298,7 +1298,7 @@
         <v>30317</v>
       </c>
       <c r="B29">
-        <v>120.5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>30348</v>
       </c>
       <c r="B30">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1322,135 +1322,138 @@
         <v>30407</v>
       </c>
       <c r="B32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30437</v>
       </c>
       <c r="B33">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>30468</v>
       </c>
       <c r="B34">
-        <v>53.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>30498</v>
       </c>
       <c r="B35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>30529</v>
       </c>
       <c r="B36">
-        <v>76.900000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>30560</v>
       </c>
       <c r="B37">
-        <v>272.39999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>30590</v>
       </c>
       <c r="B38">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>30621</v>
       </c>
       <c r="B39">
-        <v>222.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>30651</v>
       </c>
       <c r="B40">
-        <v>378.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>30682</v>
       </c>
       <c r="B41">
-        <v>358.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>30713</v>
       </c>
       <c r="B42">
-        <v>349.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>30742</v>
       </c>
       <c r="B43">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>30773</v>
       </c>
       <c r="B44">
-        <v>152.69999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>30803</v>
       </c>
       <c r="B45">
-        <v>32.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>30834</v>
       </c>
       <c r="B46">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>30864</v>
       </c>
       <c r="B47">
-        <v>136.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>30895</v>
       </c>
       <c r="B48">
-        <v>18.600000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1458,7 +1461,7 @@
         <v>30926</v>
       </c>
       <c r="B49">
-        <v>70.3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1466,7 +1469,7 @@
         <v>30956</v>
       </c>
       <c r="B50">
-        <v>68.2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1474,7 +1477,7 @@
         <v>30987</v>
       </c>
       <c r="B51">
-        <v>470.4</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1482,7 +1485,7 @@
         <v>31017</v>
       </c>
       <c r="B52">
-        <v>198.4</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1490,7 +1493,7 @@
         <v>31048</v>
       </c>
       <c r="B53">
-        <v>135.5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1498,7 +1501,7 @@
         <v>31079</v>
       </c>
       <c r="B54">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1506,7 +1509,7 @@
         <v>31107</v>
       </c>
       <c r="B55">
-        <v>66.3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1514,7 +1517,7 @@
         <v>31138</v>
       </c>
       <c r="B56">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1522,7 +1525,7 @@
         <v>31168</v>
       </c>
       <c r="B57">
-        <v>40.4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1530,7 +1533,7 @@
         <v>31199</v>
       </c>
       <c r="B58">
-        <v>25.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1538,7 +1541,7 @@
         <v>31229</v>
       </c>
       <c r="B59">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1546,7 +1549,7 @@
         <v>31260</v>
       </c>
       <c r="B60">
-        <v>75.3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1554,7 +1557,7 @@
         <v>31291</v>
       </c>
       <c r="B61">
-        <v>127.8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1562,7 +1565,7 @@
         <v>31321</v>
       </c>
       <c r="B62">
-        <v>80.7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1570,7 +1573,7 @@
         <v>31352</v>
       </c>
       <c r="B63">
-        <v>239.9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1578,7 +1581,7 @@
         <v>31382</v>
       </c>
       <c r="B64">
-        <v>273.7</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1586,7 +1589,7 @@
         <v>31413</v>
       </c>
       <c r="B65">
-        <v>406.2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1594,7 +1597,7 @@
         <v>31444</v>
       </c>
       <c r="B66">
-        <v>77.400000000000006</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1602,7 +1605,7 @@
         <v>31472</v>
       </c>
       <c r="B67">
-        <v>138.30000000000001</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1610,7 +1613,7 @@
         <v>31503</v>
       </c>
       <c r="B68">
-        <v>40.700000000000003</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1618,7 +1621,7 @@
         <v>31533</v>
       </c>
       <c r="B69">
-        <v>56.6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1626,7 +1629,7 @@
         <v>31564</v>
       </c>
       <c r="B70">
-        <v>10.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1634,7 +1637,7 @@
         <v>31594</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1642,7 +1645,7 @@
         <v>31625</v>
       </c>
       <c r="B72">
-        <v>17.899999999999999</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1650,7 +1653,7 @@
         <v>31656</v>
       </c>
       <c r="B73">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1658,7 +1661,7 @@
         <v>31686</v>
       </c>
       <c r="B74">
-        <v>195.7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1666,7 +1669,7 @@
         <v>31717</v>
       </c>
       <c r="B75">
-        <v>114.8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1674,7 +1677,7 @@
         <v>31747</v>
       </c>
       <c r="B76">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1682,7 +1685,7 @@
         <v>31778</v>
       </c>
       <c r="B77">
-        <v>264.8</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1690,7 +1693,7 @@
         <v>31809</v>
       </c>
       <c r="B78">
-        <v>33.4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1698,7 +1701,7 @@
         <v>31837</v>
       </c>
       <c r="B79">
-        <v>36.700000000000003</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1706,7 +1709,7 @@
         <v>31868</v>
       </c>
       <c r="B80">
-        <v>73.3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1714,7 +1717,7 @@
         <v>31898</v>
       </c>
       <c r="B81">
-        <v>57.3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1722,7 +1725,7 @@
         <v>31929</v>
       </c>
       <c r="B82">
-        <v>24.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1730,7 +1733,7 @@
         <v>31959</v>
       </c>
       <c r="B83">
-        <v>6.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1738,7 +1741,7 @@
         <v>31990</v>
       </c>
       <c r="B84">
-        <v>60.1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1746,7 +1749,7 @@
         <v>32021</v>
       </c>
       <c r="B85">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1754,7 +1757,7 @@
         <v>32051</v>
       </c>
       <c r="B86">
-        <v>298.3</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1762,7 +1765,7 @@
         <v>32082</v>
       </c>
       <c r="B87">
-        <v>161.1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1770,7 +1773,7 @@
         <v>32112</v>
       </c>
       <c r="B88">
-        <v>207.4</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1778,7 +1781,7 @@
         <v>32143</v>
       </c>
       <c r="B89">
-        <v>82.1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1786,7 +1789,7 @@
         <v>32174</v>
       </c>
       <c r="B90">
-        <v>34.9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1794,7 +1797,7 @@
         <v>32203</v>
       </c>
       <c r="B91">
-        <v>56.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1802,7 +1805,7 @@
         <v>32234</v>
       </c>
       <c r="B92">
-        <v>194.7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1810,7 +1813,7 @@
         <v>32264</v>
       </c>
       <c r="B93">
-        <v>33.1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1818,7 +1821,7 @@
         <v>32295</v>
       </c>
       <c r="B94">
-        <v>34.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1826,7 +1829,7 @@
         <v>32325</v>
       </c>
       <c r="B95">
-        <v>91.9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1834,7 +1837,7 @@
         <v>32356</v>
       </c>
       <c r="B96">
-        <v>175.1</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1842,7 +1845,7 @@
         <v>32387</v>
       </c>
       <c r="B97">
-        <v>142.9</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1850,7 +1853,7 @@
         <v>32417</v>
       </c>
       <c r="B98">
-        <v>67.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1858,7 +1861,7 @@
         <v>32448</v>
       </c>
       <c r="B99">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1866,7 +1869,7 @@
         <v>32478</v>
       </c>
       <c r="B100">
-        <v>213.7</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1874,7 +1877,7 @@
         <v>32509</v>
       </c>
       <c r="B101">
-        <v>122.5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1882,7 +1885,7 @@
         <v>32540</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1890,7 +1893,7 @@
         <v>32568</v>
       </c>
       <c r="B103">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1898,7 +1901,7 @@
         <v>32599</v>
       </c>
       <c r="B104">
-        <v>37.299999999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1906,7 +1909,7 @@
         <v>32629</v>
       </c>
       <c r="B105">
-        <v>34.200000000000003</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1914,7 +1917,7 @@
         <v>32660</v>
       </c>
       <c r="B106">
-        <v>31.6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1922,7 +1925,7 @@
         <v>32690</v>
       </c>
       <c r="B107">
-        <v>86.7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1930,7 +1933,7 @@
         <v>32721</v>
       </c>
       <c r="B108">
-        <v>45.2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1938,7 +1941,7 @@
         <v>32752</v>
       </c>
       <c r="B109">
-        <v>139.30000000000001</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1946,7 +1949,7 @@
         <v>32782</v>
       </c>
       <c r="B110">
-        <v>150.9</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1954,7 +1957,7 @@
         <v>32813</v>
       </c>
       <c r="B111">
-        <v>225.1</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1962,7 +1965,7 @@
         <v>32843</v>
       </c>
       <c r="B112">
-        <v>137.69999999999999</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1970,7 +1973,7 @@
         <v>32874</v>
       </c>
       <c r="B113">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1978,7 +1981,7 @@
         <v>32905</v>
       </c>
       <c r="B114">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1986,7 +1989,7 @@
         <v>32933</v>
       </c>
       <c r="B115">
-        <v>38.799999999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1994,7 +1997,7 @@
         <v>32964</v>
       </c>
       <c r="B116">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2002,7 +2005,7 @@
         <v>32994</v>
       </c>
       <c r="B117">
-        <v>67.7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2010,7 +2013,7 @@
         <v>33025</v>
       </c>
       <c r="B118">
-        <v>9.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2018,7 +2021,7 @@
         <v>33055</v>
       </c>
       <c r="B119">
-        <v>39.6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2026,7 +2029,7 @@
         <v>33086</v>
       </c>
       <c r="B120">
-        <v>89.4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2034,7 +2037,7 @@
         <v>33117</v>
       </c>
       <c r="B121">
-        <v>138.80000000000001</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2042,7 +2045,7 @@
         <v>33147</v>
       </c>
       <c r="B122">
-        <v>145.69999999999999</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2050,7 +2053,7 @@
         <v>33178</v>
       </c>
       <c r="B123">
-        <v>150.6</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2058,7 +2061,7 @@
         <v>33208</v>
       </c>
       <c r="B124">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2066,7 +2069,7 @@
         <v>33239</v>
       </c>
       <c r="B125">
-        <v>164.4</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2074,7 +2077,7 @@
         <v>33270</v>
       </c>
       <c r="B126">
-        <v>45.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2082,7 +2085,7 @@
         <v>33298</v>
       </c>
       <c r="B127">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2090,7 +2093,7 @@
         <v>33329</v>
       </c>
       <c r="B128">
-        <v>15.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2098,7 +2101,7 @@
         <v>33359</v>
       </c>
       <c r="B129">
-        <v>61.8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2106,7 +2109,7 @@
         <v>33390</v>
       </c>
       <c r="B130">
-        <v>80.900000000000006</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2114,7 +2117,7 @@
         <v>33420</v>
       </c>
       <c r="B131">
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2122,7 +2125,7 @@
         <v>33451</v>
       </c>
       <c r="B132">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2130,7 +2133,7 @@
         <v>33482</v>
       </c>
       <c r="B133">
-        <v>48.8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2138,7 +2141,7 @@
         <v>33512</v>
       </c>
       <c r="B134">
-        <v>153.6</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2146,7 +2149,7 @@
         <v>33543</v>
       </c>
       <c r="B135">
-        <v>164.6</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2154,7 +2157,7 @@
         <v>33573</v>
       </c>
       <c r="B136">
-        <v>245.3</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2162,7 +2165,7 @@
         <v>33604</v>
       </c>
       <c r="B137">
-        <v>87.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2170,7 +2173,7 @@
         <v>33635</v>
       </c>
       <c r="B138">
-        <v>3.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2178,7 +2181,7 @@
         <v>33664</v>
       </c>
       <c r="B139">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2186,7 +2189,7 @@
         <v>33695</v>
       </c>
       <c r="B140">
-        <v>28.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2194,7 +2197,7 @@
         <v>33725</v>
       </c>
       <c r="B141">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2202,7 +2205,7 @@
         <v>33756</v>
       </c>
       <c r="B142">
-        <v>11.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2210,7 +2213,7 @@
         <v>33786</v>
       </c>
       <c r="B143">
-        <v>50.9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2218,7 +2221,7 @@
         <v>33817</v>
       </c>
       <c r="B144">
-        <v>23.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2226,7 +2229,7 @@
         <v>33848</v>
       </c>
       <c r="B145">
-        <v>147.9</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2234,7 +2237,7 @@
         <v>33878</v>
       </c>
       <c r="B146">
-        <v>64.400000000000006</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2242,7 +2245,7 @@
         <v>33909</v>
       </c>
       <c r="B147">
-        <v>443.7</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2250,7 +2253,7 @@
         <v>33939</v>
       </c>
       <c r="B148">
-        <v>214.8</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2258,7 +2261,7 @@
         <v>33970</v>
       </c>
       <c r="B149">
-        <v>64.2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2266,7 +2269,7 @@
         <v>34001</v>
       </c>
       <c r="B150">
-        <v>28.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2274,7 +2277,7 @@
         <v>34029</v>
       </c>
       <c r="B151">
-        <v>24.9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2282,7 +2285,7 @@
         <v>34060</v>
       </c>
       <c r="B152">
-        <v>24.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2290,7 +2293,7 @@
         <v>34090</v>
       </c>
       <c r="B153">
-        <v>67.400000000000006</v>
+        <v>69</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2298,7 +2301,7 @@
         <v>34121</v>
       </c>
       <c r="B154">
-        <v>17.7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2306,7 +2309,7 @@
         <v>34151</v>
       </c>
       <c r="B155">
-        <v>17.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2314,7 +2317,7 @@
         <v>34182</v>
       </c>
       <c r="B156">
-        <v>38.700000000000003</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2322,7 +2325,7 @@
         <v>34213</v>
       </c>
       <c r="B157">
-        <v>98.9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2330,7 +2333,7 @@
         <v>34243</v>
       </c>
       <c r="B158">
-        <v>155.5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -2338,7 +2341,7 @@
         <v>34274</v>
       </c>
       <c r="B159">
-        <v>441.8</v>
+        <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2346,7 +2349,7 @@
         <v>34304</v>
       </c>
       <c r="B160">
-        <v>346.6</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -2354,7 +2357,7 @@
         <v>34335</v>
       </c>
       <c r="B161">
-        <v>146.4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -2362,7 +2365,7 @@
         <v>34366</v>
       </c>
       <c r="B162">
-        <v>193.8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -2370,7 +2373,7 @@
         <v>34394</v>
       </c>
       <c r="B163">
-        <v>43.7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -2378,7 +2381,7 @@
         <v>34425</v>
       </c>
       <c r="B164">
-        <v>65.599999999999994</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -2386,7 +2389,7 @@
         <v>34455</v>
       </c>
       <c r="B165">
-        <v>80.599999999999994</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -2394,7 +2397,7 @@
         <v>34486</v>
       </c>
       <c r="B166">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -2402,7 +2405,7 @@
         <v>34516</v>
       </c>
       <c r="B167">
-        <v>24.6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -2410,7 +2413,7 @@
         <v>34547</v>
       </c>
       <c r="B168">
-        <v>30.1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -2418,7 +2421,7 @@
         <v>34578</v>
       </c>
       <c r="B169">
-        <v>195.6</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2426,7 +2429,7 @@
         <v>34608</v>
       </c>
       <c r="B170">
-        <v>384.6</v>
+        <v>378</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -2434,7 +2437,7 @@
         <v>34639</v>
       </c>
       <c r="B171">
-        <v>355.9</v>
+        <v>348</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -2442,7 +2445,7 @@
         <v>34669</v>
       </c>
       <c r="B172">
-        <v>191.3</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -2450,7 +2453,7 @@
         <v>34700</v>
       </c>
       <c r="B173">
-        <v>189.2</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -2458,7 +2461,7 @@
         <v>34731</v>
       </c>
       <c r="B174">
-        <v>69.599999999999994</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -2466,7 +2469,7 @@
         <v>34759</v>
       </c>
       <c r="B175">
-        <v>16.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -2474,7 +2477,7 @@
         <v>34790</v>
       </c>
       <c r="B176">
-        <v>92.9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -2482,7 +2485,7 @@
         <v>34820</v>
       </c>
       <c r="B177">
-        <v>206.5</v>
+        <v>212</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -2490,7 +2493,7 @@
         <v>34851</v>
       </c>
       <c r="B178">
-        <v>18.600000000000001</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -2498,7 +2501,7 @@
         <v>34881</v>
       </c>
       <c r="B179">
-        <v>39.9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -2506,7 +2509,7 @@
         <v>34912</v>
       </c>
       <c r="B180">
-        <v>54.9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -2514,7 +2517,7 @@
         <v>34943</v>
       </c>
       <c r="B181">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -2522,7 +2525,7 @@
         <v>34973</v>
       </c>
       <c r="B182">
-        <v>147.9</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -2530,7 +2533,7 @@
         <v>35004</v>
       </c>
       <c r="B183">
-        <v>195.7</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -2538,7 +2541,7 @@
         <v>35034</v>
       </c>
       <c r="B184">
-        <v>210.4</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -2546,7 +2549,7 @@
         <v>35065</v>
       </c>
       <c r="B185">
-        <v>126.2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -2554,7 +2557,7 @@
         <v>35096</v>
       </c>
       <c r="B186">
-        <v>95.2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -2562,7 +2565,7 @@
         <v>35125</v>
       </c>
       <c r="B187">
-        <v>9.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -2570,7 +2573,7 @@
         <v>35156</v>
       </c>
       <c r="B188">
-        <v>123.3</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -2578,7 +2581,7 @@
         <v>35186</v>
       </c>
       <c r="B189">
-        <v>17.100000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -2586,7 +2589,7 @@
         <v>35217</v>
       </c>
       <c r="B190">
-        <v>145.4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -2594,7 +2597,7 @@
         <v>35247</v>
       </c>
       <c r="B191">
-        <v>23.9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -2602,7 +2605,7 @@
         <v>35278</v>
       </c>
       <c r="B192">
-        <v>70.3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -2610,7 +2613,7 @@
         <v>35309</v>
       </c>
       <c r="B193">
-        <v>138.30000000000001</v>
+        <v>143</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -2618,7 +2621,7 @@
         <v>35339</v>
       </c>
       <c r="B194">
-        <v>110.7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -2626,7 +2629,7 @@
         <v>35370</v>
       </c>
       <c r="B195">
-        <v>175.2</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -2634,7 +2637,7 @@
         <v>35400</v>
       </c>
       <c r="B196">
-        <v>134.30000000000001</v>
+        <v>135</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -2642,7 +2645,7 @@
         <v>35431</v>
       </c>
       <c r="B197">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -2650,7 +2653,7 @@
         <v>35462</v>
       </c>
       <c r="B198">
-        <v>15.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -2658,7 +2661,7 @@
         <v>35490</v>
       </c>
       <c r="B199">
-        <v>20.3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -2666,7 +2669,7 @@
         <v>35521</v>
       </c>
       <c r="B200">
-        <v>50.2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -2674,7 +2677,7 @@
         <v>35551</v>
       </c>
       <c r="B201">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -2682,7 +2685,7 @@
         <v>35582</v>
       </c>
       <c r="B202">
-        <v>36.9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -2690,7 +2693,7 @@
         <v>35612</v>
       </c>
       <c r="B203">
-        <v>74.099999999999994</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -2698,7 +2701,7 @@
         <v>35643</v>
       </c>
       <c r="B204">
-        <v>25.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -2706,7 +2709,7 @@
         <v>35674</v>
       </c>
       <c r="B205">
-        <v>105.3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -2714,7 +2717,7 @@
         <v>35704</v>
       </c>
       <c r="B206">
-        <v>178.9</v>
+        <v>185</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -2722,7 +2725,7 @@
         <v>35735</v>
       </c>
       <c r="B207">
-        <v>205.1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -2730,7 +2733,7 @@
         <v>35765</v>
       </c>
       <c r="B208">
-        <v>247.5</v>
+        <v>244</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -2738,7 +2741,7 @@
         <v>35796</v>
       </c>
       <c r="B209">
-        <v>119.8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -2746,7 +2749,7 @@
         <v>35827</v>
       </c>
       <c r="B210">
-        <v>28.8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -2754,7 +2757,7 @@
         <v>35855</v>
       </c>
       <c r="B211">
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -2762,7 +2765,7 @@
         <v>35886</v>
       </c>
       <c r="B212">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -2770,7 +2773,7 @@
         <v>35916</v>
       </c>
       <c r="B213">
-        <v>107.8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -2778,7 +2781,7 @@
         <v>35947</v>
       </c>
       <c r="B214">
-        <v>17.399999999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2786,7 +2789,7 @@
         <v>35977</v>
       </c>
       <c r="B215">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -2794,7 +2797,7 @@
         <v>36008</v>
       </c>
       <c r="B216">
-        <v>39.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -2802,7 +2805,7 @@
         <v>36039</v>
       </c>
       <c r="B217">
-        <v>68.5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -2810,7 +2813,7 @@
         <v>36069</v>
       </c>
       <c r="B218">
-        <v>116.6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -2818,7 +2821,7 @@
         <v>36100</v>
       </c>
       <c r="B219">
-        <v>141.1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -2826,7 +2829,7 @@
         <v>36130</v>
       </c>
       <c r="B220">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -2834,7 +2837,7 @@
         <v>36161</v>
       </c>
       <c r="B221">
-        <v>254.6</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -2842,7 +2845,7 @@
         <v>36192</v>
       </c>
       <c r="B222">
-        <v>190.6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -2850,7 +2853,7 @@
         <v>36220</v>
       </c>
       <c r="B223">
-        <v>22.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -2858,7 +2861,7 @@
         <v>36251</v>
       </c>
       <c r="B224">
-        <v>147.30000000000001</v>
+        <v>154</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -2866,7 +2869,7 @@
         <v>36281</v>
       </c>
       <c r="B225">
-        <v>88.7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -2874,7 +2877,7 @@
         <v>36312</v>
       </c>
       <c r="B226">
-        <v>10.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -2882,7 +2885,7 @@
         <v>36342</v>
       </c>
       <c r="B227">
-        <v>31.1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -2890,7 +2893,7 @@
         <v>36373</v>
       </c>
       <c r="B228">
-        <v>30.3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -2898,7 +2901,7 @@
         <v>36404</v>
       </c>
       <c r="B229">
-        <v>116.3</v>
+        <v>113</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -2906,7 +2909,7 @@
         <v>36434</v>
       </c>
       <c r="B230">
-        <v>297.39999999999998</v>
+        <v>303</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -2914,7 +2917,7 @@
         <v>36465</v>
       </c>
       <c r="B231">
-        <v>253.8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -2922,7 +2925,7 @@
         <v>36495</v>
       </c>
       <c r="B232">
-        <v>187.4</v>
+        <v>182</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -2930,7 +2933,7 @@
         <v>36526</v>
       </c>
       <c r="B233">
-        <v>290.7</v>
+        <v>286</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -2938,7 +2941,7 @@
         <v>36557</v>
       </c>
       <c r="B234">
-        <v>139.69999999999999</v>
+        <v>144</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -2946,7 +2949,7 @@
         <v>36586</v>
       </c>
       <c r="B235">
-        <v>80.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -2954,7 +2957,7 @@
         <v>36617</v>
       </c>
       <c r="B236">
-        <v>45.6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -2962,7 +2965,7 @@
         <v>36647</v>
       </c>
       <c r="B237">
-        <v>69.7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -2970,7 +2973,7 @@
         <v>36678</v>
       </c>
       <c r="B238">
-        <v>35.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -2978,7 +2981,7 @@
         <v>36708</v>
       </c>
       <c r="B239">
-        <v>17.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -2986,7 +2989,7 @@
         <v>36739</v>
       </c>
       <c r="B240">
-        <v>102.4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -2994,7 +2997,7 @@
         <v>36770</v>
       </c>
       <c r="B241">
-        <v>148.9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -3002,7 +3005,7 @@
         <v>36800</v>
       </c>
       <c r="B242">
-        <v>156.69999999999999</v>
+        <v>159</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3010,7 +3013,7 @@
         <v>36831</v>
       </c>
       <c r="B243">
-        <v>289.5</v>
+        <v>284</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -3018,7 +3021,7 @@
         <v>36861</v>
       </c>
       <c r="B244">
-        <v>460.6</v>
+        <v>451</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -3026,7 +3029,7 @@
         <v>36892</v>
       </c>
       <c r="B245">
-        <v>233.2</v>
+        <v>231</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -3034,7 +3037,7 @@
         <v>36923</v>
       </c>
       <c r="B246">
-        <v>81.099999999999994</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -3042,7 +3045,7 @@
         <v>36951</v>
       </c>
       <c r="B247">
-        <v>10.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -3050,7 +3053,7 @@
         <v>36982</v>
       </c>
       <c r="B248">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -3058,7 +3061,7 @@
         <v>37012</v>
       </c>
       <c r="B249">
-        <v>32.9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -3066,7 +3069,7 @@
         <v>37043</v>
       </c>
       <c r="B250">
-        <v>77.5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -3074,7 +3077,7 @@
         <v>37073</v>
       </c>
       <c r="B251">
-        <v>39.299999999999997</v>
+        <v>45</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -3082,7 +3085,7 @@
         <v>37104</v>
       </c>
       <c r="B252">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -3090,7 +3093,7 @@
         <v>37135</v>
       </c>
       <c r="B253">
-        <v>67.900000000000006</v>
+        <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -3098,7 +3101,7 @@
         <v>37165</v>
       </c>
       <c r="B254">
-        <v>144.1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -3106,7 +3109,7 @@
         <v>37196</v>
       </c>
       <c r="B255">
-        <v>252.7</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -3114,7 +3117,7 @@
         <v>37226</v>
       </c>
       <c r="B256">
-        <v>279.3</v>
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -3122,7 +3125,7 @@
         <v>37257</v>
       </c>
       <c r="B257">
-        <v>132.9</v>
+        <v>131</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -3130,7 +3133,7 @@
         <v>37288</v>
       </c>
       <c r="B258">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -3138,7 +3141,7 @@
         <v>37316</v>
       </c>
       <c r="B259">
-        <v>32.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -3146,7 +3149,7 @@
         <v>37347</v>
       </c>
       <c r="B260">
-        <v>46.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -3154,7 +3157,7 @@
         <v>37377</v>
       </c>
       <c r="B261">
-        <v>120.1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -3162,7 +3165,7 @@
         <v>37408</v>
       </c>
       <c r="B262">
-        <v>52.7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -3170,7 +3173,7 @@
         <v>37438</v>
       </c>
       <c r="B263">
-        <v>12.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -3178,7 +3181,7 @@
         <v>37469</v>
       </c>
       <c r="B264">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -3186,7 +3189,7 @@
         <v>37500</v>
       </c>
       <c r="B265">
-        <v>23.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -3194,7 +3197,7 @@
         <v>37530</v>
       </c>
       <c r="B266">
-        <v>206.3</v>
+        <v>210</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -3202,7 +3205,7 @@
         <v>37561</v>
       </c>
       <c r="B267">
-        <v>247.5</v>
+        <v>249</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -3210,7 +3213,7 @@
         <v>37591</v>
       </c>
       <c r="B268">
-        <v>321.3</v>
+        <v>325</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -3218,7 +3221,7 @@
         <v>37622</v>
       </c>
       <c r="B269">
-        <v>190.2</v>
+        <v>188</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -3226,7 +3229,7 @@
         <v>37653</v>
       </c>
       <c r="B270">
-        <v>99.8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -3234,7 +3237,7 @@
         <v>37681</v>
       </c>
       <c r="B271">
-        <v>71.8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,7 +3245,7 @@
         <v>37712</v>
       </c>
       <c r="B272">
-        <v>68.900000000000006</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -3250,7 +3253,7 @@
         <v>37742</v>
       </c>
       <c r="B273">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -3258,7 +3261,7 @@
         <v>37773</v>
       </c>
       <c r="B274">
-        <v>44.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -3266,7 +3269,7 @@
         <v>37803</v>
       </c>
       <c r="B275">
-        <v>69.8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -3274,7 +3277,7 @@
         <v>37834</v>
       </c>
       <c r="B276">
-        <v>70.3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -3282,7 +3285,7 @@
         <v>37865</v>
       </c>
       <c r="B277">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -3290,7 +3293,7 @@
         <v>37895</v>
       </c>
       <c r="B278">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -3298,7 +3301,7 @@
         <v>37926</v>
       </c>
       <c r="B279">
-        <v>439.1</v>
+        <v>429</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -3306,7 +3309,7 @@
         <v>37956</v>
       </c>
       <c r="B280">
-        <v>80.8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -3314,7 +3317,7 @@
         <v>37987</v>
       </c>
       <c r="B281">
-        <v>105.9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -3322,7 +3325,7 @@
         <v>38018</v>
       </c>
       <c r="B282">
-        <v>63.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -3330,7 +3333,7 @@
         <v>38047</v>
       </c>
       <c r="B283">
-        <v>60.6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -3338,7 +3341,7 @@
         <v>38078</v>
       </c>
       <c r="B284">
-        <v>44.9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -3346,7 +3349,7 @@
         <v>38108</v>
       </c>
       <c r="B285">
-        <v>100.8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -3354,7 +3357,7 @@
         <v>38139</v>
       </c>
       <c r="B286">
-        <v>4.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -3362,7 +3365,7 @@
         <v>38169</v>
       </c>
       <c r="B287">
-        <v>66.7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -3370,7 +3373,7 @@
         <v>38200</v>
       </c>
       <c r="B288">
-        <v>32.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -3378,7 +3381,7 @@
         <v>38231</v>
       </c>
       <c r="B289">
-        <v>194.1</v>
+        <v>199</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -3386,7 +3389,7 @@
         <v>38261</v>
       </c>
       <c r="B290">
-        <v>355.4</v>
+        <v>350</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -3394,7 +3397,7 @@
         <v>38292</v>
       </c>
       <c r="B291">
-        <v>304.5</v>
+        <v>296</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -3402,7 +3405,7 @@
         <v>38322</v>
       </c>
       <c r="B292">
-        <v>372.7</v>
+        <v>365</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -3410,7 +3413,7 @@
         <v>38353</v>
       </c>
       <c r="B293">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -3418,7 +3421,7 @@
         <v>38384</v>
       </c>
       <c r="B294">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -3426,7 +3429,7 @@
         <v>38412</v>
       </c>
       <c r="B295">
-        <v>41.2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -3434,7 +3437,7 @@
         <v>38443</v>
       </c>
       <c r="B296">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -3442,7 +3445,7 @@
         <v>38473</v>
       </c>
       <c r="B297">
-        <v>68.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -3450,7 +3453,7 @@
         <v>38504</v>
       </c>
       <c r="B298">
-        <v>15.3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -3458,7 +3461,7 @@
         <v>38534</v>
       </c>
       <c r="B299">
-        <v>49.6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -3466,7 +3469,7 @@
         <v>38565</v>
       </c>
       <c r="B300">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -3474,7 +3477,7 @@
         <v>38596</v>
       </c>
       <c r="B301">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -3482,7 +3485,7 @@
         <v>38626</v>
       </c>
       <c r="B302">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -3490,7 +3493,7 @@
         <v>38657</v>
       </c>
       <c r="B303">
-        <v>573.1</v>
+        <v>577</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -3498,7 +3501,7 @@
         <v>38687</v>
       </c>
       <c r="B304">
-        <v>115.4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -3506,7 +3509,7 @@
         <v>38718</v>
       </c>
       <c r="B305">
-        <v>278.7</v>
+        <v>280</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -3514,7 +3517,7 @@
         <v>38749</v>
       </c>
       <c r="B306">
-        <v>83.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -3522,7 +3525,7 @@
         <v>38777</v>
       </c>
       <c r="B307">
-        <v>80.900000000000006</v>
+        <v>83</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -3530,7 +3533,7 @@
         <v>38808</v>
       </c>
       <c r="B308">
-        <v>65.400000000000006</v>
+        <v>67</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -3538,7 +3541,7 @@
         <v>38838</v>
       </c>
       <c r="B309">
-        <v>39.6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -3546,7 +3549,7 @@
         <v>38869</v>
       </c>
       <c r="B310">
-        <v>28.1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -3554,7 +3557,7 @@
         <v>38899</v>
       </c>
       <c r="B311">
-        <v>7.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -3562,7 +3565,7 @@
         <v>38930</v>
       </c>
       <c r="B312">
-        <v>105.8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -3570,7 +3573,7 @@
         <v>38961</v>
       </c>
       <c r="B313">
-        <v>183.8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -3578,7 +3581,7 @@
         <v>38991</v>
       </c>
       <c r="B314">
-        <v>252.8</v>
+        <v>244</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -3586,7 +3589,7 @@
         <v>39022</v>
       </c>
       <c r="B315">
-        <v>281.5</v>
+        <v>278</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -3594,7 +3597,7 @@
         <v>39052</v>
       </c>
       <c r="B316">
-        <v>167.9</v>
+        <v>174</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -3602,7 +3605,7 @@
         <v>39083</v>
       </c>
       <c r="B317">
-        <v>192.6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -3610,7 +3613,7 @@
         <v>39114</v>
       </c>
       <c r="B318">
-        <v>142.30000000000001</v>
+        <v>128</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -3618,7 +3621,7 @@
         <v>39142</v>
       </c>
       <c r="B319">
-        <v>13.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -3626,7 +3629,7 @@
         <v>39173</v>
       </c>
       <c r="B320">
-        <v>165.9</v>
+        <v>173</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -3634,7 +3637,7 @@
         <v>39203</v>
       </c>
       <c r="B321">
-        <v>59.1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -3642,7 +3645,7 @@
         <v>39234</v>
       </c>
       <c r="B322">
-        <v>100.1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -3650,7 +3653,7 @@
         <v>39264</v>
       </c>
       <c r="B323">
-        <v>42.2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -3658,7 +3661,7 @@
         <v>39295</v>
       </c>
       <c r="B324">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -3666,7 +3669,7 @@
         <v>39326</v>
       </c>
       <c r="B325">
-        <v>74.099999999999994</v>
+        <v>77</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -3674,7 +3677,7 @@
         <v>39356</v>
       </c>
       <c r="B326">
-        <v>232.2</v>
+        <v>230</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -3682,7 +3685,7 @@
         <v>39387</v>
       </c>
       <c r="B327">
-        <v>157.1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -3690,7 +3693,7 @@
         <v>39417</v>
       </c>
       <c r="B328">
-        <v>270.2</v>
+        <v>269</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -3698,7 +3701,7 @@
         <v>39448</v>
       </c>
       <c r="B329">
-        <v>188.6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -3706,7 +3709,7 @@
         <v>39479</v>
       </c>
       <c r="B330">
-        <v>136.80000000000001</v>
+        <v>139</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -3714,7 +3717,7 @@
         <v>39508</v>
       </c>
       <c r="B331">
-        <v>298.8</v>
+        <v>306</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -3722,7 +3725,7 @@
         <v>39539</v>
       </c>
       <c r="B332">
-        <v>110.6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -3730,7 +3733,7 @@
         <v>39569</v>
       </c>
       <c r="B333">
-        <v>35.799999999999997</v>
+        <v>41</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -3738,7 +3741,7 @@
         <v>39600</v>
       </c>
       <c r="B334">
-        <v>64.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -3746,7 +3749,7 @@
         <v>39630</v>
       </c>
       <c r="B335">
-        <v>58.8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -3754,7 +3757,7 @@
         <v>39661</v>
       </c>
       <c r="B336">
-        <v>130.9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -3762,7 +3765,7 @@
         <v>39692</v>
       </c>
       <c r="B337">
-        <v>61.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -3770,7 +3773,7 @@
         <v>39722</v>
       </c>
       <c r="B338">
-        <v>193.1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -3778,7 +3781,7 @@
         <v>39753</v>
       </c>
       <c r="B339">
-        <v>250.8</v>
+        <v>243</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -3786,7 +3789,7 @@
         <v>39783</v>
       </c>
       <c r="B340">
-        <v>265.8</v>
+        <v>267</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -3794,7 +3797,7 @@
         <v>39814</v>
       </c>
       <c r="B341">
-        <v>170.7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -3802,7 +3805,7 @@
         <v>39845</v>
       </c>
       <c r="B342">
-        <v>12.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -3810,7 +3813,7 @@
         <v>39873</v>
       </c>
       <c r="B343">
-        <v>78.7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -3826,7 +3829,7 @@
         <v>39934</v>
       </c>
       <c r="B345">
-        <v>35.6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -3834,7 +3837,7 @@
         <v>39965</v>
       </c>
       <c r="B346">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -3842,7 +3845,7 @@
         <v>39995</v>
       </c>
       <c r="B347">
-        <v>15.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -3850,7 +3853,7 @@
         <v>40026</v>
       </c>
       <c r="B348">
-        <v>104.2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -3858,7 +3861,7 @@
         <v>40057</v>
       </c>
       <c r="B349">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -3866,7 +3869,7 @@
         <v>40087</v>
       </c>
       <c r="B350">
-        <v>63.5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -3874,7 +3877,7 @@
         <v>40118</v>
       </c>
       <c r="B351">
-        <v>310.7</v>
+        <v>312</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -3882,7 +3885,7 @@
         <v>40148</v>
       </c>
       <c r="B352">
-        <v>388.2</v>
+        <v>381</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -3890,7 +3893,7 @@
         <v>40179</v>
       </c>
       <c r="B353">
-        <v>107.4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -3898,7 +3901,7 @@
         <v>40210</v>
       </c>
       <c r="B354">
-        <v>36.299999999999997</v>
+        <v>38</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -3906,7 +3909,7 @@
         <v>40238</v>
       </c>
       <c r="B355">
-        <v>29.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -3914,7 +3917,7 @@
         <v>40269</v>
       </c>
       <c r="B356">
-        <v>46.4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -3922,7 +3925,7 @@
         <v>40299</v>
       </c>
       <c r="B357">
-        <v>110.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -3930,7 +3933,7 @@
         <v>40330</v>
       </c>
       <c r="B358">
-        <v>78.900000000000006</v>
+        <v>85</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -3938,7 +3941,7 @@
         <v>40360</v>
       </c>
       <c r="B359">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -3946,7 +3949,7 @@
         <v>40391</v>
       </c>
       <c r="B360">
-        <v>121.8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -3954,7 +3957,7 @@
         <v>40422</v>
       </c>
       <c r="B361">
-        <v>116.2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -3962,7 +3965,7 @@
         <v>40452</v>
       </c>
       <c r="B362">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -3970,7 +3973,7 @@
         <v>40483</v>
       </c>
       <c r="B363">
-        <v>343.1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -3978,7 +3981,7 @@
         <v>40513</v>
       </c>
       <c r="B364">
-        <v>646.70000000000005</v>
+        <v>619</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -3986,7 +3989,7 @@
         <v>40544</v>
       </c>
       <c r="B365">
-        <v>747.8</v>
+        <v>739</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -3994,7 +3997,7 @@
         <v>40575</v>
       </c>
       <c r="B366">
-        <v>558.5</v>
+        <v>542</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -4002,7 +4005,7 @@
         <v>40603</v>
       </c>
       <c r="B367">
-        <v>104.2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -4010,7 +4013,7 @@
         <v>40634</v>
       </c>
       <c r="B368">
-        <v>139.9</v>
+        <v>140</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -4018,7 +4021,7 @@
         <v>40664</v>
       </c>
       <c r="B369">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -4026,7 +4029,7 @@
         <v>40695</v>
       </c>
       <c r="B370">
-        <v>6.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -4034,7 +4037,7 @@
         <v>40725</v>
       </c>
       <c r="B371">
-        <v>30.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -4042,7 +4045,7 @@
         <v>40756</v>
       </c>
       <c r="B372">
-        <v>143.80000000000001</v>
+        <v>142</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -4050,7 +4053,7 @@
         <v>40787</v>
       </c>
       <c r="B373">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -4058,7 +4061,7 @@
         <v>40817</v>
       </c>
       <c r="B374">
-        <v>364.1</v>
+        <v>357</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -4066,7 +4069,7 @@
         <v>40848</v>
       </c>
       <c r="B375">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -4074,7 +4077,7 @@
         <v>40878</v>
       </c>
       <c r="B376">
-        <v>412.1</v>
+        <v>418</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -4082,7 +4085,7 @@
         <v>40909</v>
       </c>
       <c r="B377">
-        <v>58.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -4090,7 +4093,7 @@
         <v>40940</v>
       </c>
       <c r="B378">
-        <v>88.7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -4098,7 +4101,7 @@
         <v>40969</v>
       </c>
       <c r="B379">
-        <v>16.100000000000001</v>
+        <v>18</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -4106,7 +4109,7 @@
         <v>41000</v>
       </c>
       <c r="B380">
-        <v>74.400000000000006</v>
+        <v>79</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -4114,7 +4117,7 @@
         <v>41030</v>
       </c>
       <c r="B381">
-        <v>11.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -4122,7 +4125,7 @@
         <v>41061</v>
       </c>
       <c r="B382">
-        <v>9.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -4130,7 +4133,7 @@
         <v>41091</v>
       </c>
       <c r="B383">
-        <v>56.2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -4138,7 +4141,7 @@
         <v>41122</v>
       </c>
       <c r="B384">
-        <v>63.4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -4146,7 +4149,7 @@
         <v>41153</v>
       </c>
       <c r="B385">
-        <v>111.9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -4154,7 +4157,7 @@
         <v>41183</v>
       </c>
       <c r="B386">
-        <v>392.4</v>
+        <v>377</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -4162,7 +4165,7 @@
         <v>41214</v>
       </c>
       <c r="B387">
-        <v>318.39999999999998</v>
+        <v>316</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -4170,7 +4173,7 @@
         <v>41244</v>
       </c>
       <c r="B388">
-        <v>407.8</v>
+        <v>398</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -4178,7 +4181,7 @@
         <v>41275</v>
       </c>
       <c r="B389">
-        <v>439.5</v>
+        <v>459</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -4186,7 +4189,7 @@
         <v>41306</v>
       </c>
       <c r="B390">
-        <v>130.9</v>
+        <v>132</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -4194,7 +4197,7 @@
         <v>41334</v>
       </c>
       <c r="B391">
-        <v>129.19999999999999</v>
+        <v>133</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -4202,7 +4205,7 @@
         <v>41365</v>
       </c>
       <c r="B392">
-        <v>38.9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -4210,7 +4213,7 @@
         <v>41395</v>
       </c>
       <c r="B393">
-        <v>99.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -4218,7 +4221,7 @@
         <v>41426</v>
       </c>
       <c r="B394">
-        <v>21.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -4226,7 +4229,7 @@
         <v>41456</v>
       </c>
       <c r="B395">
-        <v>27.4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -4234,7 +4237,7 @@
         <v>41487</v>
       </c>
       <c r="B396">
-        <v>24.2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -4242,7 +4245,7 @@
         <v>41518</v>
       </c>
       <c r="B397">
-        <v>54.7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -4250,7 +4253,7 @@
         <v>41548</v>
       </c>
       <c r="B398">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -4258,7 +4261,7 @@
         <v>41579</v>
       </c>
       <c r="B399">
-        <v>132.80000000000001</v>
+        <v>128</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -4266,7 +4269,7 @@
         <v>41609</v>
       </c>
       <c r="B400">
-        <v>383.2</v>
+        <v>399</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -4274,7 +4277,7 @@
         <v>41640</v>
       </c>
       <c r="B401">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -4282,7 +4285,7 @@
         <v>41671</v>
       </c>
       <c r="B402">
-        <v>36.299999999999997</v>
+        <v>37</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -4290,7 +4293,7 @@
         <v>41699</v>
       </c>
       <c r="B403">
-        <v>46.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -4298,7 +4301,7 @@
         <v>41730</v>
       </c>
       <c r="B404">
-        <v>30.8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -4306,7 +4309,7 @@
         <v>41760</v>
       </c>
       <c r="B405">
-        <v>120.3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -4314,7 +4317,7 @@
         <v>41791</v>
       </c>
       <c r="B406">
-        <v>8.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -4322,7 +4325,7 @@
         <v>41821</v>
       </c>
       <c r="B407">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -4330,7 +4333,7 @@
         <v>41852</v>
       </c>
       <c r="B408">
-        <v>116.3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -4338,7 +4341,7 @@
         <v>41883</v>
       </c>
       <c r="B409">
-        <v>66.2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -4346,7 +4349,7 @@
         <v>41913</v>
       </c>
       <c r="B410">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -4354,7 +4357,7 @@
         <v>41944</v>
       </c>
       <c r="B411">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -4362,7 +4365,7 @@
         <v>41974</v>
       </c>
       <c r="B412">
-        <v>830.3</v>
+        <v>830</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -4370,7 +4373,7 @@
         <v>42005</v>
       </c>
       <c r="B413">
-        <v>54.8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -4378,7 +4381,7 @@
         <v>42036</v>
       </c>
       <c r="B414">
-        <v>144.30000000000001</v>
+        <v>144</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -4386,7 +4389,7 @@
         <v>42064</v>
       </c>
       <c r="B415">
-        <v>80.7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -4394,7 +4397,7 @@
         <v>42095</v>
       </c>
       <c r="B416">
-        <v>75.099999999999994</v>
+        <v>84</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -4402,7 +4405,7 @@
         <v>42125</v>
       </c>
       <c r="B417">
-        <v>135.30000000000001</v>
+        <v>135</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -4410,7 +4413,7 @@
         <v>42156</v>
       </c>
       <c r="B418">
-        <v>75.3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -4418,7 +4421,7 @@
         <v>42186</v>
       </c>
       <c r="B419">
-        <v>19.600000000000001</v>
+        <v>22</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -4426,7 +4429,7 @@
         <v>42217</v>
       </c>
       <c r="B420">
-        <v>32.200000000000003</v>
+        <v>34</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -4434,7 +4437,7 @@
         <v>42248</v>
       </c>
       <c r="B421">
-        <v>195.5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -4442,7 +4445,7 @@
         <v>42278</v>
       </c>
       <c r="B422">
-        <v>404.5</v>
+        <v>409</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -4450,7 +4453,7 @@
         <v>42309</v>
       </c>
       <c r="B423">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -4458,7 +4461,7 @@
         <v>42339</v>
       </c>
       <c r="B424">
-        <v>314.3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -4466,7 +4469,7 @@
         <v>42370</v>
       </c>
       <c r="B425">
-        <v>73.900000000000006</v>
+        <v>72</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -4474,7 +4477,7 @@
         <v>42401</v>
       </c>
       <c r="B426">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -4482,7 +4485,7 @@
         <v>42430</v>
       </c>
       <c r="B427">
-        <v>47.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -4490,7 +4493,7 @@
         <v>42461</v>
       </c>
       <c r="B428">
-        <v>11.1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -4498,7 +4501,7 @@
         <v>42491</v>
       </c>
       <c r="B429">
-        <v>210.4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -4506,7 +4509,7 @@
         <v>42522</v>
       </c>
       <c r="B430">
-        <v>8.3000000000000007</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -4514,7 +4517,7 @@
         <v>42552</v>
       </c>
       <c r="B431">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -4522,7 +4525,7 @@
         <v>42583</v>
       </c>
       <c r="B432">
-        <v>59.4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -4530,7 +4533,7 @@
         <v>42614</v>
       </c>
       <c r="B433">
-        <v>15.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -4538,7 +4541,7 @@
         <v>42644</v>
       </c>
       <c r="B434">
-        <v>139.80000000000001</v>
+        <v>132</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -4546,7 +4549,7 @@
         <v>42675</v>
       </c>
       <c r="B435">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -4554,7 +4557,7 @@
         <v>42705</v>
       </c>
       <c r="B436">
-        <v>101.3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -4562,7 +4565,7 @@
         <v>42736</v>
       </c>
       <c r="B437">
-        <v>233.8</v>
+        <v>230</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -4570,7 +4573,7 @@
         <v>42767</v>
       </c>
       <c r="B438">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -4578,7 +4581,7 @@
         <v>42795</v>
       </c>
       <c r="B439">
-        <v>80.2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -4586,7 +4589,7 @@
         <v>42826</v>
       </c>
       <c r="B440">
-        <v>12.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -4594,7 +4597,7 @@
         <v>42856</v>
       </c>
       <c r="B441">
-        <v>32.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -4602,7 +4605,7 @@
         <v>42887</v>
       </c>
       <c r="B442">
-        <v>36.9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -4610,7 +4613,7 @@
         <v>42917</v>
       </c>
       <c r="B443">
-        <v>57.1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -4618,7 +4621,7 @@
         <v>42948</v>
       </c>
       <c r="B444">
-        <v>71.599999999999994</v>
+        <v>78</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -4626,7 +4629,7 @@
         <v>42979</v>
       </c>
       <c r="B445">
-        <v>137.69999999999999</v>
+        <v>149</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -4634,7 +4637,7 @@
         <v>43009</v>
       </c>
       <c r="B446">
-        <v>209.1</v>
+        <v>215</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -4642,7 +4645,7 @@
         <v>43040</v>
       </c>
       <c r="B447">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -4650,7 +4653,7 @@
         <v>43070</v>
       </c>
       <c r="B448">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -4658,7 +4661,7 @@
         <v>43101</v>
       </c>
       <c r="B449">
-        <v>63.9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -4666,7 +4669,7 @@
         <v>43132</v>
       </c>
       <c r="B450">
-        <v>96.6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -4674,7 +4677,7 @@
         <v>43160</v>
       </c>
       <c r="B451">
-        <v>103.8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -4682,7 +4685,7 @@
         <v>43191</v>
       </c>
       <c r="B452">
-        <v>66.400000000000006</v>
+        <v>72</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -4698,7 +4701,7 @@
         <v>43252</v>
       </c>
       <c r="B454">
-        <v>40.700000000000003</v>
+        <v>49</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -4706,7 +4709,7 @@
         <v>43282</v>
       </c>
       <c r="B455">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -4714,7 +4717,7 @@
         <v>43313</v>
       </c>
       <c r="B456">
-        <v>43.3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -4722,7 +4725,7 @@
         <v>43344</v>
       </c>
       <c r="B457">
-        <v>67.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -4730,7 +4733,7 @@
         <v>43374</v>
       </c>
       <c r="B458">
-        <v>255.9</v>
+        <v>257</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -4738,7 +4741,7 @@
         <v>43405</v>
       </c>
       <c r="B459">
-        <v>485.2</v>
+        <v>483</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -4746,7 +4749,7 @@
         <v>43435</v>
       </c>
       <c r="B460">
-        <v>131.9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -4754,7 +4757,7 @@
         <v>43466</v>
       </c>
       <c r="B461">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -4762,7 +4765,7 @@
         <v>43497</v>
       </c>
       <c r="B462">
-        <v>110.8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -4770,7 +4773,7 @@
         <v>43525</v>
       </c>
       <c r="B463">
-        <v>21.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -4778,7 +4781,7 @@
         <v>43556</v>
       </c>
       <c r="B464">
-        <v>20.3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -4786,7 +4789,7 @@
         <v>43586</v>
       </c>
       <c r="B465">
-        <v>27.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -4794,7 +4797,7 @@
         <v>43617</v>
       </c>
       <c r="B466">
-        <v>37.299999999999997</v>
+        <v>37</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -4802,7 +4805,7 @@
         <v>43647</v>
       </c>
       <c r="B467">
-        <v>55.1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -4810,7 +4813,7 @@
         <v>43678</v>
       </c>
       <c r="B468">
-        <v>98.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -4818,7 +4821,7 @@
         <v>43709</v>
       </c>
       <c r="B469">
-        <v>275.60000000000002</v>
+        <v>267</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -4826,7 +4829,7 @@
         <v>43739</v>
       </c>
       <c r="B470">
-        <v>322.39999999999998</v>
+        <v>333</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -4834,7 +4837,7 @@
         <v>43770</v>
       </c>
       <c r="B471">
-        <v>257.7</v>
+        <v>254</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -4842,7 +4845,7 @@
         <v>43800</v>
       </c>
       <c r="B472">
-        <v>286.5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -4850,7 +4853,7 @@
         <v>43831</v>
       </c>
       <c r="B473">
-        <v>78.5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -4858,7 +4861,7 @@
         <v>43862</v>
       </c>
       <c r="B474">
-        <v>62.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -4866,7 +4869,7 @@
         <v>43891</v>
       </c>
       <c r="B475">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -4874,7 +4877,7 @@
         <v>43922</v>
       </c>
       <c r="B476">
-        <v>34.700000000000003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -4882,7 +4885,7 @@
         <v>43952</v>
       </c>
       <c r="B477">
-        <v>108.6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -4890,7 +4893,7 @@
         <v>43983</v>
       </c>
       <c r="B478">
-        <v>73.2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -4898,7 +4901,7 @@
         <v>44013</v>
       </c>
       <c r="B479">
-        <v>83.9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -4906,7 +4909,7 @@
         <v>44044</v>
       </c>
       <c r="B480">
-        <v>20.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -4914,21 +4917,24 @@
         <v>44075</v>
       </c>
       <c r="B481">
-        <v>148.80000000000001</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R41" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4938,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -5006,43 +5012,43 @@
         <v>1981</v>
       </c>
       <c r="B5">
-        <v>75.3</v>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>93.9</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>53.3</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>101.2</v>
+        <v>104</v>
       </c>
       <c r="F5">
-        <v>93.8</v>
+        <v>95</v>
       </c>
       <c r="G5">
         <v>9</v>
       </c>
       <c r="H5">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I5">
-        <v>18.8</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>177</v>
       </c>
       <c r="K5">
-        <v>190.2</v>
+        <v>191</v>
       </c>
       <c r="L5">
-        <v>201.5</v>
+        <v>194</v>
       </c>
       <c r="M5">
-        <v>186.7</v>
+        <v>179</v>
       </c>
       <c r="N5">
-        <v>1361.7</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -5050,43 +5056,43 @@
         <v>1982</v>
       </c>
       <c r="B6">
-        <v>63.2</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>12.8</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>54.9</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>17.3</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>84.7</v>
+        <v>89</v>
       </c>
       <c r="G6">
-        <v>12.7</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>33.4</v>
+        <v>37</v>
       </c>
       <c r="I6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6">
-        <v>99.2</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>130</v>
       </c>
       <c r="L6">
-        <v>295.10000000000002</v>
+        <v>284</v>
       </c>
       <c r="M6">
-        <v>309.7</v>
+        <v>312</v>
       </c>
       <c r="N6">
-        <v>1140</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -5094,43 +5100,43 @@
         <v>1983</v>
       </c>
       <c r="B7">
-        <v>120.5</v>
+        <v>122</v>
       </c>
       <c r="C7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>36.9</v>
+        <v>41</v>
       </c>
       <c r="G7">
-        <v>53.9</v>
+        <v>61</v>
       </c>
       <c r="H7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I7">
-        <v>76.900000000000006</v>
+        <v>81</v>
       </c>
       <c r="J7">
-        <v>272.39999999999998</v>
+        <v>272</v>
       </c>
       <c r="K7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L7">
-        <v>222.2</v>
+        <v>211</v>
       </c>
       <c r="M7">
-        <v>378.3</v>
+        <v>370</v>
       </c>
       <c r="N7">
-        <v>1325.8</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -5138,43 +5144,43 @@
         <v>1984</v>
       </c>
       <c r="B8">
-        <v>358.1</v>
+        <v>357</v>
       </c>
       <c r="C8">
-        <v>349.6</v>
+        <v>339</v>
       </c>
       <c r="D8">
-        <v>67.900000000000006</v>
+        <v>68</v>
       </c>
       <c r="E8">
-        <v>152.69999999999999</v>
+        <v>154</v>
       </c>
       <c r="F8">
-        <v>32.6</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="I8">
-        <v>18.600000000000001</v>
+        <v>19</v>
       </c>
       <c r="J8">
-        <v>70.3</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>68.2</v>
+        <v>80</v>
       </c>
       <c r="L8">
-        <v>470.4</v>
+        <v>458</v>
       </c>
       <c r="M8">
-        <v>198.4</v>
+        <v>182</v>
       </c>
       <c r="N8">
-        <v>1933.4</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -5182,43 +5188,43 @@
         <v>1985</v>
       </c>
       <c r="B9">
-        <v>135.5</v>
+        <v>134</v>
       </c>
       <c r="C9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9">
-        <v>66.3</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>40.4</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>25.6</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I9">
-        <v>75.3</v>
+        <v>78</v>
       </c>
       <c r="J9">
-        <v>127.8</v>
+        <v>134</v>
       </c>
       <c r="K9">
-        <v>80.7</v>
+        <v>85</v>
       </c>
       <c r="L9">
-        <v>239.9</v>
+        <v>229</v>
       </c>
       <c r="M9">
-        <v>273.7</v>
+        <v>272</v>
       </c>
       <c r="N9">
-        <v>1274.2</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -5226,43 +5232,43 @@
         <v>1986</v>
       </c>
       <c r="B10">
-        <v>406.2</v>
+        <v>402</v>
       </c>
       <c r="C10">
-        <v>77.400000000000006</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>138.30000000000001</v>
+        <v>140</v>
       </c>
       <c r="E10">
-        <v>40.700000000000003</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>56.6</v>
+        <v>59</v>
       </c>
       <c r="G10">
-        <v>10.3</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I10">
-        <v>17.899999999999999</v>
+        <v>21</v>
       </c>
       <c r="J10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>195.7</v>
+        <v>196</v>
       </c>
       <c r="L10">
-        <v>114.8</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N10">
-        <v>1351.9</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -5270,43 +5276,43 @@
         <v>1987</v>
       </c>
       <c r="B11">
-        <v>264.8</v>
+        <v>266</v>
       </c>
       <c r="C11">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>36.700000000000003</v>
+        <v>39</v>
       </c>
       <c r="E11">
-        <v>73.3</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>57.3</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>24.9</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>60.1</v>
+        <v>65</v>
       </c>
       <c r="J11">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K11">
-        <v>298.3</v>
+        <v>303</v>
       </c>
       <c r="L11">
-        <v>161.1</v>
+        <v>165</v>
       </c>
       <c r="M11">
-        <v>207.4</v>
+        <v>210</v>
       </c>
       <c r="N11">
-        <v>1349.5</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -5314,43 +5320,43 @@
         <v>1988</v>
       </c>
       <c r="B12">
-        <v>82.1</v>
+        <v>84</v>
       </c>
       <c r="C12">
-        <v>34.9</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>56.5</v>
+        <v>58</v>
       </c>
       <c r="E12">
-        <v>194.7</v>
+        <v>199</v>
       </c>
       <c r="F12">
-        <v>33.1</v>
+        <v>39</v>
       </c>
       <c r="G12">
-        <v>34.1</v>
+        <v>40</v>
       </c>
       <c r="H12">
-        <v>91.9</v>
+        <v>91</v>
       </c>
       <c r="I12">
-        <v>175.1</v>
+        <v>179</v>
       </c>
       <c r="J12">
-        <v>142.9</v>
+        <v>143</v>
       </c>
       <c r="K12">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="L12">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M12">
-        <v>213.7</v>
+        <v>209</v>
       </c>
       <c r="N12">
-        <v>1336.8</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -5358,43 +5364,43 @@
         <v>1989</v>
       </c>
       <c r="B13">
-        <v>122.5</v>
+        <v>129</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>38</v>
+      </c>
+      <c r="G13">
         <v>39</v>
       </c>
-      <c r="E13">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="F13">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G13">
-        <v>31.6</v>
-      </c>
       <c r="H13">
-        <v>86.7</v>
+        <v>90</v>
       </c>
       <c r="I13">
-        <v>45.2</v>
+        <v>49</v>
       </c>
       <c r="J13">
-        <v>139.30000000000001</v>
+        <v>147</v>
       </c>
       <c r="K13">
-        <v>150.9</v>
+        <v>161</v>
       </c>
       <c r="L13">
-        <v>225.1</v>
+        <v>216</v>
       </c>
       <c r="M13">
-        <v>137.69999999999999</v>
+        <v>138</v>
       </c>
       <c r="N13">
-        <v>1064.5</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -5402,43 +5408,43 @@
         <v>1990</v>
       </c>
       <c r="B14">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>38.799999999999997</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>67.7</v>
+        <v>73</v>
       </c>
       <c r="G14">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>39.6</v>
+        <v>43</v>
       </c>
       <c r="I14">
-        <v>89.4</v>
+        <v>90</v>
       </c>
       <c r="J14">
-        <v>138.80000000000001</v>
+        <v>138</v>
       </c>
       <c r="K14">
-        <v>145.69999999999999</v>
+        <v>150</v>
       </c>
       <c r="L14">
-        <v>150.6</v>
+        <v>149</v>
       </c>
       <c r="M14">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="N14">
-        <v>1235.5</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -5446,43 +5452,43 @@
         <v>1991</v>
       </c>
       <c r="B15">
-        <v>164.4</v>
+        <v>161</v>
       </c>
       <c r="C15">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="D15">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
         <v>66</v>
       </c>
-      <c r="E15">
-        <v>15.8</v>
-      </c>
-      <c r="F15">
-        <v>61.8</v>
-      </c>
       <c r="G15">
-        <v>80.900000000000006</v>
+        <v>83</v>
       </c>
       <c r="H15">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J15">
-        <v>48.8</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>153.6</v>
+        <v>152</v>
       </c>
       <c r="L15">
-        <v>164.6</v>
+        <v>165</v>
       </c>
       <c r="M15">
-        <v>245.3</v>
+        <v>243</v>
       </c>
       <c r="N15">
-        <v>1104.2</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -5490,43 +5496,43 @@
         <v>1992</v>
       </c>
       <c r="B16">
-        <v>87.3</v>
+        <v>89</v>
       </c>
       <c r="C16">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>28.2</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G16">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>50.9</v>
+        <v>55</v>
       </c>
       <c r="I16">
-        <v>23.5</v>
+        <v>26</v>
       </c>
       <c r="J16">
-        <v>147.9</v>
+        <v>144</v>
       </c>
       <c r="K16">
-        <v>64.400000000000006</v>
+        <v>66</v>
       </c>
       <c r="L16">
-        <v>443.7</v>
+        <v>439</v>
       </c>
       <c r="M16">
-        <v>214.8</v>
+        <v>219</v>
       </c>
       <c r="N16">
-        <v>1146.5</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -5534,43 +5540,43 @@
         <v>1993</v>
       </c>
       <c r="B17">
-        <v>64.2</v>
+        <v>66</v>
       </c>
       <c r="C17">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>24.9</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>24.2</v>
+        <v>27</v>
       </c>
       <c r="F17">
-        <v>67.400000000000006</v>
+        <v>69</v>
       </c>
       <c r="G17">
-        <v>17.7</v>
+        <v>21</v>
       </c>
       <c r="H17">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="I17">
-        <v>38.700000000000003</v>
+        <v>46</v>
       </c>
       <c r="J17">
-        <v>98.9</v>
+        <v>103</v>
       </c>
       <c r="K17">
-        <v>155.5</v>
+        <v>161</v>
       </c>
       <c r="L17">
-        <v>441.8</v>
+        <v>427</v>
       </c>
       <c r="M17">
-        <v>346.6</v>
+        <v>342</v>
       </c>
       <c r="N17">
-        <v>1326.2</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -5578,43 +5584,43 @@
         <v>1994</v>
       </c>
       <c r="B18">
-        <v>146.4</v>
+        <v>150</v>
       </c>
       <c r="C18">
-        <v>193.8</v>
+        <v>191</v>
       </c>
       <c r="D18">
-        <v>43.7</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>65.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="F18">
-        <v>80.599999999999994</v>
+        <v>79</v>
       </c>
       <c r="G18">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>24.6</v>
+        <v>28</v>
       </c>
       <c r="I18">
-        <v>30.1</v>
+        <v>34</v>
       </c>
       <c r="J18">
-        <v>195.6</v>
+        <v>195</v>
       </c>
       <c r="K18">
-        <v>384.6</v>
+        <v>378</v>
       </c>
       <c r="L18">
-        <v>355.9</v>
+        <v>348</v>
       </c>
       <c r="M18">
-        <v>191.3</v>
+        <v>182</v>
       </c>
       <c r="N18">
-        <v>1722.7</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -5622,43 +5628,43 @@
         <v>1995</v>
       </c>
       <c r="B19">
-        <v>189.2</v>
+        <v>201</v>
       </c>
       <c r="C19">
-        <v>69.599999999999994</v>
+        <v>67</v>
       </c>
       <c r="D19">
-        <v>16.8</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>92.9</v>
+        <v>98</v>
       </c>
       <c r="F19">
-        <v>206.5</v>
+        <v>212</v>
       </c>
       <c r="G19">
-        <v>18.600000000000001</v>
+        <v>22</v>
       </c>
       <c r="H19">
-        <v>39.9</v>
+        <v>42</v>
       </c>
       <c r="I19">
-        <v>54.9</v>
+        <v>61</v>
       </c>
       <c r="J19">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="L19">
-        <v>195.7</v>
+        <v>201</v>
       </c>
       <c r="M19">
-        <v>210.4</v>
+        <v>215</v>
       </c>
       <c r="N19">
-        <v>1286.4000000000001</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -5666,43 +5672,43 @@
         <v>1996</v>
       </c>
       <c r="B20">
-        <v>126.2</v>
+        <v>125</v>
       </c>
       <c r="C20">
-        <v>95.2</v>
+        <v>98</v>
       </c>
       <c r="D20">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>123.3</v>
+        <v>126</v>
       </c>
       <c r="F20">
-        <v>17.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <v>145.4</v>
+        <v>147</v>
       </c>
       <c r="H20">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="I20">
-        <v>70.3</v>
+        <v>74</v>
       </c>
       <c r="J20">
-        <v>138.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="K20">
-        <v>110.7</v>
+        <v>113</v>
       </c>
       <c r="L20">
-        <v>175.2</v>
+        <v>174</v>
       </c>
       <c r="M20">
-        <v>134.30000000000001</v>
+        <v>135</v>
       </c>
       <c r="N20">
-        <v>1169.8</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -5710,43 +5716,43 @@
         <v>1997</v>
       </c>
       <c r="B21">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>50.2</v>
+        <v>62</v>
       </c>
       <c r="F21">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G21">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>74.099999999999994</v>
+        <v>78</v>
       </c>
       <c r="I21">
-        <v>25.8</v>
+        <v>28</v>
       </c>
       <c r="J21">
-        <v>105.3</v>
+        <v>109</v>
       </c>
       <c r="K21">
-        <v>178.9</v>
+        <v>185</v>
       </c>
       <c r="L21">
-        <v>205.1</v>
+        <v>210</v>
       </c>
       <c r="M21">
-        <v>247.5</v>
+        <v>244</v>
       </c>
       <c r="N21">
-        <v>1080.7</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -5754,43 +5760,43 @@
         <v>1998</v>
       </c>
       <c r="B22">
-        <v>119.8</v>
+        <v>121</v>
       </c>
       <c r="C22">
-        <v>28.8</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>107.8</v>
+        <v>105</v>
       </c>
       <c r="G22">
-        <v>17.399999999999999</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I22">
-        <v>39.5</v>
+        <v>41</v>
       </c>
       <c r="J22">
-        <v>68.5</v>
+        <v>73</v>
       </c>
       <c r="K22">
-        <v>116.6</v>
+        <v>125</v>
       </c>
       <c r="L22">
-        <v>141.1</v>
+        <v>143</v>
       </c>
       <c r="M22">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N22">
-        <v>1067.8</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -5798,43 +5804,43 @@
         <v>1999</v>
       </c>
       <c r="B23">
-        <v>254.6</v>
+        <v>252</v>
       </c>
       <c r="C23">
-        <v>190.6</v>
+        <v>189</v>
       </c>
       <c r="D23">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>147.30000000000001</v>
+        <v>154</v>
       </c>
       <c r="F23">
-        <v>88.7</v>
+        <v>92</v>
       </c>
       <c r="G23">
-        <v>10.1</v>
+        <v>13</v>
       </c>
       <c r="H23">
-        <v>31.1</v>
+        <v>34</v>
       </c>
       <c r="I23">
-        <v>30.3</v>
+        <v>35</v>
       </c>
       <c r="J23">
-        <v>116.3</v>
+        <v>113</v>
       </c>
       <c r="K23">
-        <v>297.39999999999998</v>
+        <v>303</v>
       </c>
       <c r="L23">
-        <v>253.8</v>
+        <v>254</v>
       </c>
       <c r="M23">
-        <v>187.4</v>
+        <v>182</v>
       </c>
       <c r="N23">
-        <v>1630</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -5842,43 +5848,43 @@
         <v>2000</v>
       </c>
       <c r="B24">
-        <v>290.7</v>
+        <v>286</v>
       </c>
       <c r="C24">
-        <v>139.69999999999999</v>
+        <v>144</v>
       </c>
       <c r="D24">
-        <v>80.5</v>
+        <v>85</v>
       </c>
       <c r="E24">
-        <v>45.6</v>
+        <v>49</v>
       </c>
       <c r="F24">
-        <v>69.7</v>
+        <v>74</v>
       </c>
       <c r="G24">
-        <v>35.5</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="I24">
-        <v>102.4</v>
+        <v>107</v>
       </c>
       <c r="J24">
-        <v>148.9</v>
+        <v>153</v>
       </c>
       <c r="K24">
-        <v>156.69999999999999</v>
+        <v>159</v>
       </c>
       <c r="L24">
-        <v>289.5</v>
+        <v>284</v>
       </c>
       <c r="M24">
-        <v>460.6</v>
+        <v>451</v>
       </c>
       <c r="N24">
-        <v>1837</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -5886,43 +5892,43 @@
         <v>2001</v>
       </c>
       <c r="B25">
-        <v>233.2</v>
+        <v>231</v>
       </c>
       <c r="C25">
-        <v>81.099999999999994</v>
+        <v>83</v>
       </c>
       <c r="D25">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F25">
-        <v>32.9</v>
+        <v>38</v>
       </c>
       <c r="G25">
-        <v>77.5</v>
+        <v>79</v>
       </c>
       <c r="H25">
-        <v>39.299999999999997</v>
+        <v>45</v>
       </c>
       <c r="I25">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J25">
-        <v>67.900000000000006</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>144.1</v>
+        <v>146</v>
       </c>
       <c r="L25">
-        <v>252.7</v>
+        <v>253</v>
       </c>
       <c r="M25">
-        <v>279.3</v>
+        <v>274</v>
       </c>
       <c r="N25">
-        <v>1313.6</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -5930,43 +5936,43 @@
         <v>2002</v>
       </c>
       <c r="B26">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="C26">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26">
-        <v>32.5</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>46.8</v>
+        <v>57</v>
       </c>
       <c r="F26">
-        <v>120.1</v>
+        <v>125</v>
       </c>
       <c r="G26">
-        <v>52.7</v>
+        <v>53</v>
       </c>
       <c r="H26">
-        <v>12.1</v>
+        <v>14</v>
       </c>
       <c r="I26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J26">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="K26">
-        <v>206.3</v>
+        <v>210</v>
       </c>
       <c r="L26">
-        <v>247.5</v>
+        <v>249</v>
       </c>
       <c r="M26">
-        <v>321.3</v>
+        <v>325</v>
       </c>
       <c r="N26">
-        <v>1310.8</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -5974,43 +5980,43 @@
         <v>2003</v>
       </c>
       <c r="B27">
-        <v>190.2</v>
+        <v>188</v>
       </c>
       <c r="C27">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="D27">
-        <v>71.8</v>
+        <v>76</v>
       </c>
       <c r="E27">
-        <v>68.900000000000006</v>
+        <v>78</v>
       </c>
       <c r="F27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27">
-        <v>44.9</v>
+        <v>48</v>
       </c>
       <c r="H27">
-        <v>69.8</v>
+        <v>72</v>
       </c>
       <c r="I27">
-        <v>70.3</v>
+        <v>71</v>
       </c>
       <c r="J27">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L27">
-        <v>439.1</v>
+        <v>429</v>
       </c>
       <c r="M27">
-        <v>80.8</v>
+        <v>77</v>
       </c>
       <c r="N27">
-        <v>1378.6</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -6018,43 +6024,43 @@
         <v>2004</v>
       </c>
       <c r="B28">
-        <v>105.9</v>
+        <v>105</v>
       </c>
       <c r="C28">
-        <v>63.6</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>60.6</v>
+        <v>62</v>
       </c>
       <c r="E28">
-        <v>44.9</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>100.8</v>
+        <v>103</v>
       </c>
       <c r="G28">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>66.7</v>
+        <v>69</v>
       </c>
       <c r="I28">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="J28">
-        <v>194.1</v>
+        <v>199</v>
       </c>
       <c r="K28">
-        <v>355.4</v>
+        <v>350</v>
       </c>
       <c r="L28">
-        <v>304.5</v>
+        <v>296</v>
       </c>
       <c r="M28">
-        <v>372.7</v>
+        <v>365</v>
       </c>
       <c r="N28">
-        <v>1705.9</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -6062,43 +6068,43 @@
         <v>2005</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>41.2</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F29">
-        <v>68.5</v>
+        <v>69</v>
       </c>
       <c r="G29">
-        <v>15.3</v>
+        <v>17</v>
       </c>
       <c r="H29">
-        <v>49.6</v>
+        <v>48</v>
       </c>
       <c r="I29">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J29">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L29">
-        <v>573.1</v>
+        <v>577</v>
       </c>
       <c r="M29">
-        <v>115.4</v>
+        <v>113</v>
       </c>
       <c r="N29">
-        <v>1401.1</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -6106,43 +6112,43 @@
         <v>2006</v>
       </c>
       <c r="B30">
-        <v>278.7</v>
+        <v>280</v>
       </c>
       <c r="C30">
-        <v>83.5</v>
+        <v>84</v>
       </c>
       <c r="D30">
-        <v>80.900000000000006</v>
+        <v>83</v>
       </c>
       <c r="E30">
-        <v>65.400000000000006</v>
+        <v>67</v>
       </c>
       <c r="F30">
-        <v>39.6</v>
+        <v>43</v>
       </c>
       <c r="G30">
-        <v>28.1</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="I30">
-        <v>105.8</v>
+        <v>106</v>
       </c>
       <c r="J30">
-        <v>183.8</v>
+        <v>179</v>
       </c>
       <c r="K30">
-        <v>252.8</v>
+        <v>244</v>
       </c>
       <c r="L30">
-        <v>281.5</v>
+        <v>278</v>
       </c>
       <c r="M30">
-        <v>167.9</v>
+        <v>174</v>
       </c>
       <c r="N30">
-        <v>1575.1</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -6150,43 +6156,43 @@
         <v>2007</v>
       </c>
       <c r="B31">
-        <v>192.6</v>
+        <v>189</v>
       </c>
       <c r="C31">
-        <v>142.30000000000001</v>
+        <v>128</v>
       </c>
       <c r="D31">
-        <v>13.4</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>165.9</v>
+        <v>173</v>
       </c>
       <c r="F31">
-        <v>59.1</v>
+        <v>65</v>
       </c>
       <c r="G31">
-        <v>100.1</v>
+        <v>109</v>
       </c>
       <c r="H31">
-        <v>42.2</v>
+        <v>45</v>
       </c>
       <c r="I31">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J31">
-        <v>74.099999999999994</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>232.2</v>
+        <v>230</v>
       </c>
       <c r="L31">
-        <v>157.1</v>
+        <v>160</v>
       </c>
       <c r="M31">
-        <v>270.2</v>
+        <v>269</v>
       </c>
       <c r="N31">
-        <v>1518.2</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -6194,623 +6200,617 @@
         <v>2008</v>
       </c>
       <c r="B32">
-        <v>188.6</v>
+        <v>191</v>
       </c>
       <c r="C32">
-        <v>136.80000000000001</v>
+        <v>139</v>
       </c>
       <c r="D32">
-        <v>298.8</v>
+        <v>306</v>
       </c>
       <c r="E32">
-        <v>110.6</v>
+        <v>112</v>
       </c>
       <c r="F32">
-        <v>35.799999999999997</v>
+        <v>41</v>
       </c>
       <c r="G32">
-        <v>64.2</v>
+        <v>75</v>
       </c>
       <c r="H32">
-        <v>58.8</v>
+        <v>59</v>
       </c>
       <c r="I32">
-        <v>130.9</v>
+        <v>134</v>
       </c>
       <c r="J32">
-        <v>61.6</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>193.1</v>
+        <v>194</v>
       </c>
       <c r="L32">
-        <v>250.8</v>
+        <v>243</v>
       </c>
       <c r="M32">
-        <v>265.8</v>
+        <v>267</v>
       </c>
       <c r="N32">
-        <v>1795.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
       <c r="B33">
-        <v>170.7</v>
+        <v>175</v>
       </c>
       <c r="C33">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>78.7</v>
+        <v>83</v>
       </c>
       <c r="E33">
         <v>116</v>
       </c>
       <c r="F33">
-        <v>35.6</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H33">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="I33">
-        <v>104.2</v>
+        <v>103</v>
       </c>
       <c r="J33">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>63.5</v>
+        <v>64</v>
       </c>
       <c r="L33">
-        <v>310.7</v>
+        <v>312</v>
       </c>
       <c r="M33">
-        <v>388.2</v>
+        <v>381</v>
       </c>
       <c r="N33">
-        <v>1352.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2010</v>
       </c>
       <c r="B34">
-        <v>107.4</v>
+        <v>111</v>
       </c>
       <c r="C34">
-        <v>36.299999999999997</v>
+        <v>38</v>
       </c>
       <c r="D34">
-        <v>29.5</v>
+        <v>32</v>
       </c>
       <c r="E34">
-        <v>46.4</v>
+        <v>52</v>
       </c>
       <c r="F34">
-        <v>110.5</v>
+        <v>112</v>
       </c>
       <c r="G34">
-        <v>78.900000000000006</v>
+        <v>85</v>
       </c>
       <c r="H34">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I34">
-        <v>121.8</v>
+        <v>123</v>
       </c>
       <c r="J34">
-        <v>116.2</v>
+        <v>128</v>
       </c>
       <c r="K34">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L34">
-        <v>343.1</v>
+        <v>344</v>
       </c>
       <c r="M34">
-        <v>646.70000000000005</v>
+        <v>619</v>
       </c>
       <c r="N34">
-        <v>1774.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2011</v>
       </c>
       <c r="B35">
-        <v>747.8</v>
+        <v>739</v>
       </c>
       <c r="C35">
-        <v>558.5</v>
+        <v>542</v>
       </c>
       <c r="D35">
-        <v>104.2</v>
+        <v>107</v>
       </c>
       <c r="E35">
-        <v>139.9</v>
+        <v>140</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="H35">
-        <v>30.2</v>
+        <v>36</v>
       </c>
       <c r="I35">
-        <v>143.80000000000001</v>
+        <v>142</v>
       </c>
       <c r="J35">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K35">
-        <v>364.1</v>
+        <v>357</v>
       </c>
       <c r="L35">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M35">
-        <v>412.1</v>
+        <v>418</v>
       </c>
       <c r="N35">
-        <v>2890.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2012</v>
       </c>
       <c r="B36">
-        <v>58.8</v>
+        <v>60</v>
       </c>
       <c r="C36">
-        <v>88.7</v>
+        <v>92</v>
       </c>
       <c r="D36">
-        <v>16.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="E36">
-        <v>74.400000000000006</v>
+        <v>79</v>
       </c>
       <c r="F36">
-        <v>11.2</v>
+        <v>13</v>
       </c>
       <c r="G36">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="H36">
-        <v>56.2</v>
+        <v>56</v>
       </c>
       <c r="I36">
-        <v>63.4</v>
+        <v>64</v>
       </c>
       <c r="J36">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="K36">
-        <v>392.4</v>
+        <v>377</v>
       </c>
       <c r="L36">
-        <v>318.39999999999998</v>
+        <v>316</v>
       </c>
       <c r="M36">
-        <v>407.8</v>
+        <v>398</v>
       </c>
       <c r="N36">
-        <v>1608.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
       <c r="B37">
-        <v>439.5</v>
+        <v>459</v>
       </c>
       <c r="C37">
-        <v>130.9</v>
+        <v>132</v>
       </c>
       <c r="D37">
-        <v>129.19999999999999</v>
+        <v>133</v>
       </c>
       <c r="E37">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="G37">
-        <v>21.2</v>
+        <v>23</v>
       </c>
       <c r="H37">
-        <v>27.4</v>
+        <v>29</v>
       </c>
       <c r="I37">
-        <v>24.2</v>
+        <v>28</v>
       </c>
       <c r="J37">
-        <v>54.7</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L37">
-        <v>132.80000000000001</v>
+        <v>128</v>
       </c>
       <c r="M37">
-        <v>383.2</v>
+        <v>399</v>
       </c>
       <c r="N37">
-        <v>1559.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
       <c r="B38">
+        <v>189</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>34</v>
+      </c>
+      <c r="F38">
+        <v>127</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>120</v>
+      </c>
+      <c r="J38">
+        <v>78</v>
+      </c>
+      <c r="K38">
         <v>193</v>
       </c>
-      <c r="C38">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="D38">
-        <v>46.5</v>
-      </c>
-      <c r="E38">
-        <v>30.8</v>
-      </c>
-      <c r="F38">
-        <v>120.3</v>
-      </c>
-      <c r="G38">
-        <v>8.6</v>
-      </c>
-      <c r="H38">
-        <v>4.5</v>
-      </c>
-      <c r="I38">
-        <v>116.3</v>
-      </c>
-      <c r="J38">
-        <v>66.2</v>
-      </c>
-      <c r="K38">
-        <v>186</v>
-      </c>
       <c r="L38">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M38">
-        <v>830.3</v>
+        <v>830</v>
       </c>
       <c r="N38">
-        <v>2011.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
       <c r="B39">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>144.30000000000001</v>
+        <v>144</v>
       </c>
       <c r="D39">
-        <v>80.7</v>
+        <v>81</v>
       </c>
       <c r="E39">
-        <v>75.099999999999994</v>
+        <v>84</v>
       </c>
       <c r="F39">
-        <v>135.30000000000001</v>
+        <v>135</v>
       </c>
       <c r="G39">
-        <v>75.3</v>
+        <v>78</v>
       </c>
       <c r="H39">
-        <v>19.600000000000001</v>
+        <v>22</v>
       </c>
       <c r="I39">
-        <v>32.200000000000003</v>
+        <v>34</v>
       </c>
       <c r="J39">
-        <v>195.5</v>
+        <v>193</v>
       </c>
       <c r="K39">
-        <v>404.5</v>
+        <v>409</v>
       </c>
       <c r="L39">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="M39">
-        <v>314.3</v>
+        <v>311</v>
       </c>
       <c r="N39">
-        <v>1879.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
       <c r="B40">
-        <v>73.900000000000006</v>
+        <v>72</v>
       </c>
       <c r="C40">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="E40">
-        <v>11.1</v>
+        <v>16</v>
       </c>
       <c r="F40">
-        <v>210.4</v>
+        <v>200</v>
       </c>
       <c r="G40">
-        <v>8.3000000000000007</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I40">
-        <v>59.4</v>
+        <v>63</v>
       </c>
       <c r="J40">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="K40">
-        <v>139.80000000000001</v>
+        <v>132</v>
       </c>
       <c r="L40">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M40">
-        <v>101.3</v>
+        <v>98</v>
       </c>
       <c r="N40">
-        <v>1013.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2017</v>
       </c>
       <c r="B41">
-        <v>233.8</v>
+        <v>230</v>
       </c>
       <c r="C41">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D41">
-        <v>80.2</v>
+        <v>82</v>
       </c>
       <c r="E41">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F41">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="G41">
-        <v>36.9</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>57.1</v>
+        <v>58</v>
       </c>
       <c r="I41">
-        <v>71.599999999999994</v>
+        <v>78</v>
       </c>
       <c r="J41">
-        <v>137.69999999999999</v>
+        <v>149</v>
       </c>
       <c r="K41">
-        <v>209.1</v>
+        <v>215</v>
       </c>
       <c r="L41">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M41">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N41">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2018</v>
       </c>
       <c r="B42">
-        <v>63.9</v>
+        <v>65</v>
       </c>
       <c r="C42">
-        <v>96.6</v>
+        <v>98</v>
       </c>
       <c r="D42">
-        <v>103.8</v>
+        <v>107</v>
       </c>
       <c r="E42">
-        <v>66.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="F42">
         <v>208</v>
       </c>
       <c r="G42">
-        <v>40.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I42">
-        <v>43.3</v>
+        <v>46</v>
       </c>
       <c r="J42">
-        <v>67.8</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>255.9</v>
+        <v>257</v>
       </c>
       <c r="L42">
-        <v>485.2</v>
+        <v>483</v>
       </c>
       <c r="M42">
-        <v>131.9</v>
+        <v>128</v>
       </c>
       <c r="N42">
-        <v>1590.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
       <c r="B43">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C43">
-        <v>110.8</v>
+        <v>111</v>
       </c>
       <c r="D43">
-        <v>21.2</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>20.3</v>
+        <v>27</v>
       </c>
       <c r="F43">
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="G43">
-        <v>37.299999999999997</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>55.1</v>
+        <v>53</v>
       </c>
       <c r="I43">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="J43">
-        <v>275.60000000000002</v>
+        <v>267</v>
       </c>
       <c r="K43">
-        <v>322.39999999999998</v>
+        <v>333</v>
       </c>
       <c r="L43">
-        <v>257.7</v>
+        <v>254</v>
       </c>
       <c r="M43">
-        <v>286.5</v>
+        <v>282</v>
       </c>
       <c r="N43">
-        <v>1578.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2020</v>
       </c>
       <c r="B44">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="C44">
-        <v>62.4</v>
+        <v>62</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>34.700000000000003</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>108.6</v>
+        <v>115</v>
       </c>
       <c r="G44">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="H44">
-        <v>83.9</v>
+        <v>92</v>
       </c>
       <c r="I44">
-        <v>20.2</v>
+        <v>23</v>
       </c>
       <c r="J44">
-        <v>148.80000000000001</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B45" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
         <f>AVERAGE(B4:B44)</f>
-        <v>170.88292682926829</v>
-      </c>
-      <c r="C45" s="4">
+        <v>171.4390243902439</v>
+      </c>
+      <c r="C45" s="3">
         <f t="shared" ref="C45:N45" si="0">AVERAGE(C4:C44)</f>
-        <v>90.98536585365855</v>
-      </c>
-      <c r="D45" s="4">
+        <v>90.658536585365852</v>
+      </c>
+      <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>53.826829268292684</v>
-      </c>
-      <c r="E45" s="4">
+        <v>55.68292682926829</v>
+      </c>
+      <c r="E45" s="3">
         <f t="shared" si="0"/>
-        <v>64.948780487804896</v>
-      </c>
-      <c r="F45" s="4">
+        <v>69.048780487804876</v>
+      </c>
+      <c r="F45" s="3">
         <f t="shared" si="0"/>
-        <v>73.021951219512204</v>
-      </c>
-      <c r="G45" s="4">
+        <v>75.780487804878049</v>
+      </c>
+      <c r="G45" s="3">
         <f t="shared" si="0"/>
-        <v>34.463414634146339</v>
-      </c>
-      <c r="H45" s="4">
+        <v>37.31707317073171</v>
+      </c>
+      <c r="H45" s="3">
         <f t="shared" si="0"/>
-        <v>47.346341463414632</v>
-      </c>
-      <c r="I45" s="4">
+        <v>49.439024390243901</v>
+      </c>
+      <c r="I45" s="3">
         <f t="shared" si="0"/>
-        <v>59.975609756097562</v>
-      </c>
-      <c r="J45" s="4">
+        <v>62.365853658536587</v>
+      </c>
+      <c r="J45" s="3">
         <f t="shared" si="0"/>
-        <v>108.51707317073171</v>
-      </c>
-      <c r="K45" s="4">
+        <v>111.46341463414635</v>
+      </c>
+      <c r="K45" s="3">
         <f t="shared" si="0"/>
-        <v>186.26000000000002</v>
-      </c>
-      <c r="L45" s="4">
+        <v>188.07499999999999</v>
+      </c>
+      <c r="L45" s="3">
         <f t="shared" si="0"/>
-        <v>271.98250000000002</v>
-      </c>
-      <c r="M45" s="4">
+        <v>268.35000000000002</v>
+      </c>
+      <c r="M45" s="3">
         <f t="shared" si="0"/>
-        <v>274.41249999999997</v>
-      </c>
-      <c r="N45" s="4">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="N45" s="3">
         <f t="shared" si="0"/>
-        <v>1473.5794871794874</v>
+        <v>1487.7179487179487</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="T44" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>